--- a/21_오늘의_증권시황/Data/Config.xlsx
+++ b/21_오늘의_증권시황/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00066258-D294-419B-91AE-1795FD89D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C8690-8FCB-4ECE-A963-556398814154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6450" yWindow="-13455" windowWidth="17460" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5220" yWindow="-19710" windowWidth="16410" windowHeight="17685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="170">
   <si>
     <t>Name</t>
   </si>
@@ -441,16 +441,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>운영담당자님 안녕하세요. 
-{연도}년도 KS 연도별 보고서 작성 결과물을 보내드립니다.
-감사합니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>KS_연도별_보고서작성_결과보고_({이름})</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>윈도우 자격증명 이용, Assets시트에 같은 이름 존재시 Assets시트 우선</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,20 +460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Mail_Body_NoData</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일 내용 (처리대상이 존재하지 않은 경우)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영담당자님 안녕하세요. 
-{연도}년도 KS 연도별 보고서 작성 대상이 존재하지 않아 처리가 종료되었음을 알려드립니다.
-감사합니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)
 트랜잭션 소스로 사용되는 데이터의 종류 (오케스트레이터의 큐, 스프레드시트, 데이터베이스, 사서함, 웹API) 중에서 큐 이외의 자료를 사용시에는 FALSE 설정
 ※ 자산(Assets) 시트에서 설정시 Assets설정값이 최우선</t>
@@ -692,29 +668,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://finance.naver.com/world/</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/marketindex/</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/sise/</t>
-  </si>
-  <si>
-    <t>URL_Finance_Sise</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL_Finance_World</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL_Finance_MarketIndex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>URL_Finance_Home</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오늘의 증권시황 리포트 ({날짜})</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객님 안녕하세요. 
+오늘의 증권시황 리포트를 보내드립니다.
+감사합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail_SendOK</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 송신 여부 (TRUE or FALSE)
+TRUE 일때만 메일을 송신 합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1178,13 +1152,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1251,10 +1225,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1276,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -1290,26 +1264,26 @@
         <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>134</v>
@@ -1317,68 +1291,57 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="33">
       <c r="A15" s="4" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>93</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="33">
-      <c r="A18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
+      <c r="C18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1386,212 +1349,190 @@
         <v>141</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>143</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>$B21 &amp; "\{Year}년\{Year}년{Month}월"</f>
+        <v>Data\Output\{Year}년\{Year}년{Month}월</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>94</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>$B23 &amp; "\Backup_{Year}" &amp; "\BK_{Now}"</f>
+        <v>Data\Temp\Backup_{Year}\BK_{Now}</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f>$B24 &amp; "\{Year}년\{Year}년{Month}월"</f>
-        <v>Data\Output\{Year}년\{Year}년{Month}월</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <f>$B26 &amp; "\Backup_{Year}" &amp; "\BK_{Now}"</f>
-        <v>Data\Temp\Backup_{Year}\BK_{Now}</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>148</v>
+        <v>101</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>$B$20 &amp; "\" &amp; $B$26</f>
+        <v>Data\Input\Today_Stock_Information_Template.xlsx</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>166</v>
+        <v>85</v>
+      </c>
+      <c r="B31" s="10" t="str">
+        <f>$B$21 &amp; "\" &amp; $B$27</f>
+        <v>Data\Output\Today_Stock_Information_{Today}.xlsx</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="10" t="str">
-        <f>$B$23 &amp; "\" &amp; $B$29</f>
-        <v>Data\Input\Today_Stock_Information_Template.xlsx</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="10" t="str">
+        <f>$B$23 &amp; "\" &amp; $B$28</f>
+        <v>Data\Temp\{Name}.png</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="10" t="str">
-        <f>$B$24 &amp; "\" &amp; $B$30</f>
-        <v>Data\Output\Today_Stock_Information_{Today}.xlsx</v>
+        <v>149</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="10" t="str">
-        <f>$B$26 &amp; "\" &amp; $B$31</f>
-        <v>Data\Temp\{Name}.png</v>
+        <v>146</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1608,10 +1549,10 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1665,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
@@ -1687,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="49.5">
@@ -1698,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1725,13 +1666,13 @@
     </row>
     <row r="10" spans="1:26" ht="33">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1885,11 +1826,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1935,111 +1876,111 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="33">
       <c r="A2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>168</v>
+      </c>
+      <c r="B2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="5">
-        <v>587</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="5">
+        <v>587</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:26">
+      <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="99">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:26" ht="82.5">
+      <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="99">
-      <c r="A12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2156,21 +2097,21 @@
         <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2184,21 +2125,21 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2210,13 +2151,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2230,7 +2171,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2244,7 +2185,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4">

--- a/21_오늘의_증권시황/Data/Config.xlsx
+++ b/21_오늘의_증권시황/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C8690-8FCB-4ECE-A963-556398814154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5BF4D-46A6-400C-B98A-3993B5B00F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5220" yWindow="-19710" windowWidth="16410" windowHeight="17685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4725" yWindow="-14040" windowWidth="13500" windowHeight="12030" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1155,10 +1155,10 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1552,7 +1552,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1830,7 +1830,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1881,7 +1881,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>169</v>

--- a/21_오늘의_증권시황/Data/Config.xlsx
+++ b/21_오늘의_증권시황/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5BF4D-46A6-400C-B98A-3993B5B00F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE75FF-2D2C-4352-9471-37BA1EFA0004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4725" yWindow="-14040" windowWidth="13500" windowHeight="12030" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="1500" windowWidth="16920" windowHeight="12030" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -689,6 +689,14 @@
     <t>메일 송신 여부 (TRUE or FALSE)
 TRUE 일때만 메일을 송신 합니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet_ItemIssue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>종목별이슈</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1152,13 +1160,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1516,23 +1524,34 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1549,10 +1568,10 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1669,7 +1688,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>113</v>
@@ -1881,7 +1900,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>169</v>
@@ -1999,7 +2018,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>

--- a/21_오늘의_증권시황/Data/Config.xlsx
+++ b/21_오늘의_증권시황/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE75FF-2D2C-4352-9471-37BA1EFA0004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2061DC66-6B59-4320-A3FE-9AE334BE9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1500" windowWidth="16920" windowHeight="12030" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6480" yWindow="-23820" windowWidth="17595" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -389,18 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cell_Output</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>출력 파일 시작 셀</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>File_Input</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -696,6 +684,57 @@
   </si>
   <si>
     <t>종목별이슈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.bok.or.kr/</t>
+  </si>
+  <si>
+    <t>URL_BOK_Home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>한국은행 웹 사이트 URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_MarketReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_InvestReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_CompanyReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_IndustryReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_EconomyReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>시황정보</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>투자정보</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>종목분석</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>산업분석</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>경제분석</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1160,13 +1199,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1233,10 +1272,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1258,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -1269,290 +1308,342 @@
         <v>62</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="33">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="33">
+      <c r="A17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f>$B21 &amp; "\{Year}년\{Year}년{Month}월"</f>
-        <v>Data\Output\{Year}년\{Year}년{Month}월</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>$B23 &amp; "\Backup_{Year}" &amp; "\BK_{Now}"</f>
-        <v>Data\Temp\Backup_{Year}\BK_{Now}</v>
+        <f>$B23 &amp; "\{Year}년\{Year}년{Month}월"</f>
+        <v>Data\Output\{Year}년\{Year}년{Month}월</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>142</v>
+        <v>94</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>$B25 &amp; "\Backup_{Year}" &amp; "\BK_{Now}"</f>
+        <v>Data\Temp\Backup_{Year}\BK_{Now}</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>162</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="10" t="str">
-        <f>$B$20 &amp; "\" &amp; $B$26</f>
-        <v>Data\Input\Today_Stock_Information_Template.xlsx</v>
+        <v>157</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="10" t="str">
-        <f>$B$21 &amp; "\" &amp; $B$27</f>
-        <v>Data\Output\Today_Stock_Information_{Today}.xlsx</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="B32" s="10" t="str">
-        <f>$B$23 &amp; "\" &amp; $B$28</f>
-        <v>Data\Temp\{Name}.png</v>
+        <f>$B$22 &amp; "\" &amp; $B$28</f>
+        <v>Data\Input\Today_Stock_Information_Template.xlsx</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>164</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>$B$23 &amp; "\" &amp; $B$29</f>
+        <v>Data\Output\Today_Stock_Information_{Today}.xlsx</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
+      </c>
+      <c r="B34" s="10" t="str">
+        <f>$B$25 &amp; "\" &amp; $B$30</f>
+        <v>Data\Temp\{Name}.png</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>171</v>
+        <v>151</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>99</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
@@ -1647,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="49.5">
@@ -1658,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1685,13 +1776,13 @@
     </row>
     <row r="10" spans="1:26" ht="33">
       <c r="A10" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1936,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1897,13 +1988,13 @@
     </row>
     <row r="2" spans="1:26" ht="33">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -1985,7 +2076,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>83</v>
@@ -1996,7 +2087,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>84</v>
@@ -2116,21 +2207,21 @@
         <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2144,21 +2235,21 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2170,13 +2261,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2190,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2204,7 +2295,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2212,10 +2303,10 @@
         <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2224,10 +2315,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="13" customFormat="1">
@@ -2235,10 +2326,10 @@
         <v>88</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="13" customFormat="1">
@@ -2246,10 +2337,10 @@
         <v>89</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="13" customFormat="1">
@@ -2257,10 +2348,10 @@
         <v>90</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="13" customFormat="1">
@@ -2268,10 +2359,10 @@
         <v>91</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/21_오늘의_증권시황/Data/Config.xlsx
+++ b/21_오늘의_증권시황/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2061DC66-6B59-4320-A3FE-9AE334BE9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986FF747-D865-48B1-8965-099C313B3E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6480" yWindow="-23820" windowWidth="17595" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6480" yWindow="-23820" windowWidth="17595" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="181">
   <si>
     <t>Name</t>
   </si>
@@ -572,10 +572,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sheet_Industry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sheet_Kosdaq</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -621,10 +617,6 @@
   </si>
   <si>
     <t>Sheet_MajorNews</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sheet_Report</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -735,6 +727,10 @@
   </si>
   <si>
     <t>경제분석</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_BusinessCategory</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1199,13 +1195,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1316,7 +1312,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>125</v>
@@ -1327,13 +1323,13 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1415,7 +1411,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="str">
         <f>$B23 &amp; "\{Year}년\{Year}년{Month}월"</f>
@@ -1472,13 +1468,13 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1507,143 +1503,135 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B34" s="10" t="str">
         <f>$B$25 &amp; "\" &amp; $B$30</f>
         <v>Data\Temp\{Name}.png</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1658,11 +1646,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1988,13 +1976,13 @@
     </row>
     <row r="2" spans="1:26" ht="33">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2076,7 +2064,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>83</v>
@@ -2087,7 +2075,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>84</v>

--- a/21_오늘의_증권시황/Data/Config.xlsx
+++ b/21_오늘의_증권시황/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986FF747-D865-48B1-8965-099C313B3E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B29D309-4886-41AD-B341-26872DBE7A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6480" yWindow="-23820" windowWidth="17595" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -671,14 +671,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Sheet_ItemIssue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>종목별이슈</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.bok.or.kr/</t>
   </si>
   <si>
@@ -731,6 +723,22 @@
   </si>
   <si>
     <t>Sheet_BusinessCategory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_ItemNews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet_ItemDart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>종목별뉴스공시</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>종목별전자공시</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1195,13 +1203,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1323,13 +1331,13 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1548,7 +1556,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>150</v>
@@ -1570,32 +1578,32 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>153</v>
+        <v>182</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>153</v>
@@ -1603,10 +1611,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>153</v>
@@ -1614,10 +1622,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>153</v>
@@ -1625,12 +1633,23 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1646,7 +1665,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/21_오늘의_증권시황/Data/Config.xlsx
+++ b/21_오늘의_증권시황/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B29D309-4886-41AD-B341-26872DBE7A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D2CC5A-155B-452C-BA0C-3657B73E725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="184">
   <si>
     <t>Name</t>
   </si>
@@ -739,6 +739,10 @@
   </si>
   <si>
     <t>종목별전자공시</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TodayStockMarket</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1206,10 +1210,10 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1270,6 +1274,9 @@
       <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1277,6 +1284,9 @@
     <row r="4" spans="1:26">
       <c r="A4" s="15" t="s">
         <v>112</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>120</v>
@@ -1669,7 +1679,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2116,7 +2126,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2143,21 +2153,82 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="4"/>
+      <c r="A2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2177,7 +2248,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>

--- a/21_오늘의_증권시황/Data/Config.xlsx
+++ b/21_오늘의_증권시황/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D2CC5A-155B-452C-BA0C-3657B73E725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B345981-2AAF-491B-84F9-677D497CC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -448,12 +448,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)
-트랜잭션 소스로 사용되는 데이터의 종류 (오케스트레이터의 큐, 스프레드시트, 데이터베이스, 사서함, 웹API) 중에서 큐 이외의 자료를 사용시에는 FALSE 설정
-※ 자산(Assets) 시트에서 설정시 Assets설정값이 최우선</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OrchestratorStorageBuckets</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -484,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>오케스트레이터의 저장소(Storage Buckets) 이름</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -743,6 +733,11 @@
   </si>
   <si>
     <t>TodayStockMarket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>트랜잭션 소스로 오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)
+※ 트랜잭션 소스로 사용되는 데이터의 종류 : 오케스트레이터의 큐, 스프레드시트, 데이터베이스, 사서함, 웹API 등</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1209,11 +1204,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1275,7 +1270,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
@@ -1283,13 +1278,13 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1311,7 +1306,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -1330,46 +1325,46 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="33">
@@ -1396,13 +1391,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1418,7 +1413,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>56</v>
@@ -1429,14 +1424,14 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="str">
         <f>$B23 &amp; "\{Year}년\{Year}년{Month}월"</f>
         <v>Data\Output\{Year}년\{Year}년{Month}월</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1459,7 +1454,7 @@
         <v>Data\Temp\Backup_{Year}\BK_{Now}</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1467,7 +1462,7 @@
         <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>59</v>
@@ -1478,7 +1473,7 @@
         <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>61</v>
@@ -1486,13 +1481,13 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1521,146 +1516,146 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" s="10" t="str">
         <f>$B$25 &amp; "\" &amp; $B$30</f>
         <v>Data\Temp\{Name}.png</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1675,11 +1670,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1725,7 +1720,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="82.5">
+    <row r="2" spans="1:26" ht="66">
       <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
@@ -1766,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -2005,13 +2000,13 @@
     </row>
     <row r="2" spans="1:26" ht="33">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2093,7 +2088,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>83</v>
@@ -2104,7 +2099,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>84</v>
@@ -2120,13 +2115,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2150,84 +2145,6 @@
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2248,7 +2165,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2274,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="66">
       <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
@@ -2284,22 +2201,22 @@
       <c r="C2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>119</v>
+      <c r="D2" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2313,21 +2230,21 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2339,13 +2256,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2359,7 +2276,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2373,7 +2290,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
